--- a/biology/Microbiologie/Protoheterotrichida/Protoheterotrichida.xlsx
+++ b/biology/Microbiologie/Protoheterotrichida/Protoheterotrichida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Protoheterotrichida sont un ordre de Ciliés de la classe des Karyorelictea.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ciliés de la famille des Geleiidae sont mésopsammiques (c'est-à-dire vivant entre les grains de sable) assez communs, découverts par Kahl en 1933. Pendant plus de 40 ans, leur ciliature est restée inconnue. De 1975 à 1986, quelques progrès ont été réalisés dans la connaissance de la ciliature buccale de quelques espèces, puis en 1994 Jean Dragesco étudia l'infraciliature de huit espèces[1]. Cet auteur fut ainsi amené à proposer la famille des Aveliidae, pour y englober de très grands ciliés cylindriques (vermiformes) dont l'infraciliature buccale est caractérisée par la présence invariable de deux structures parorales : une cinétie intrabuccale et une série de polycinées bordant l'ouverture buccale, avec pour genre type Avelia Nouzarède, 1977, accompagné du genre Parduczia 1999[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ciliés de la famille des Geleiidae sont mésopsammiques (c'est-à-dire vivant entre les grains de sable) assez communs, découverts par Kahl en 1933. Pendant plus de 40 ans, leur ciliature est restée inconnue. De 1975 à 1986, quelques progrès ont été réalisés dans la connaissance de la ciliature buccale de quelques espèces, puis en 1994 Jean Dragesco étudia l'infraciliature de huit espèces. Cet auteur fut ainsi amené à proposer la famille des Aveliidae, pour y englober de très grands ciliés cylindriques (vermiformes) dont l'infraciliature buccale est caractérisée par la présence invariable de deux structures parorales : une cinétie intrabuccale et une série de polycinées bordant l'ouverture buccale, avec pour genre type Avelia Nouzarède, 1977, accompagné du genre Parduczia 1999.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 avril 2023)[2] :
-Aveliidae Dragesco, 1999[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 avril 2023) :
+Aveliidae Dragesco, 1999
 Geleiidae Kahl, 1933</t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Protoheterotrichida Nouzarède, 1977[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Protoheterotrichida Nouzarède, 1977.
 </t>
         </is>
       </c>
